--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/管理费用.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/管理费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>24.64908</v>
-      </c>
-      <c r="C2" t="n">
-        <v>126.39271</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.65805</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.09644999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20.62438</v>
-      </c>
-      <c r="G2" t="n">
-        <v>89.93934</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19.49471</v>
-      </c>
-      <c r="I2" t="n">
-        <v>35.68569</v>
-      </c>
-      <c r="J2" t="n">
-        <v>12.13386</v>
-      </c>
-      <c r="K2" t="n">
-        <v>40.69759</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1236.81703</v>
-      </c>
-      <c r="M2" t="n">
-        <v>10.199</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20.1786</v>
-      </c>
-      <c r="O2" t="n">
-        <v>57.8507</v>
-      </c>
-      <c r="P2" t="n">
-        <v>10.24263</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.19851</v>
-      </c>
-      <c r="R2" t="n">
-        <v>55.56121</v>
-      </c>
-      <c r="S2" t="n">
-        <v>10.02288</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>14.57939</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.65754</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.95013</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.12008</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>41.05958</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>209.22411</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>86.25020000000001</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>28.0055</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6.59486</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1.96783</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>45.37497</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.20979</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>25.74957</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>47.88728</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>45.27549</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.12979</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>39.62658</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>32.18807</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>38.75229</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>10.54922</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.03937</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>31.24601</v>
-      </c>
-      <c r="C3" t="n">
-        <v>149.53841</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.80029</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>21.48522</v>
-      </c>
-      <c r="G3" t="n">
-        <v>92.55307000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.69418</v>
-      </c>
-      <c r="I3" t="n">
-        <v>41.37556</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.67888</v>
-      </c>
-      <c r="K3" t="n">
-        <v>45.83418</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1363.41755</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9.61985</v>
-      </c>
-      <c r="N3" t="n">
-        <v>22.93138</v>
-      </c>
-      <c r="O3" t="n">
-        <v>61.60357</v>
-      </c>
-      <c r="P3" t="n">
-        <v>10.01583</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.21373</v>
-      </c>
-      <c r="R3" t="n">
-        <v>60.25216</v>
-      </c>
-      <c r="S3" t="n">
-        <v>10.00771</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>17.36919</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.14103</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.43108</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.79498</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>47.11265</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>230.82862</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>103.25437</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>30.74231</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15.20149</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2.65737</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>48.28892</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.42139</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>29.63977</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>50.70525</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>48.03905</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.1562</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>39.56932</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>32.56114</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>38.81187</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>13.76335</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.07817</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>41.24088</v>
-      </c>
-      <c r="C4" t="n">
-        <v>162.60535</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.7451</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>25.06282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>101.02733</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9.18379</v>
-      </c>
-      <c r="I4" t="n">
-        <v>46.5436</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16.14159</v>
-      </c>
-      <c r="K4" t="n">
-        <v>54.42097</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1592.12303</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12.509</v>
-      </c>
-      <c r="N4" t="n">
-        <v>26.81067</v>
-      </c>
-      <c r="O4" t="n">
-        <v>74.48678</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11.48975</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.2162</v>
-      </c>
-      <c r="R4" t="n">
-        <v>68.40613999999999</v>
-      </c>
-      <c r="S4" t="n">
-        <v>10.16806</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>22.64258</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.9323</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.35408</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.12727</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>52.92737</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>295.24891</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>107.77099</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>36.44871</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>19.25008</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3.24482</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>57.88639</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2.30272</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>35.67843</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>58.15928</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>54.87129</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.17469</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>48.15103</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>36.14771</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>40.75185</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>14.37294</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.09937</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
